--- a/Docs/TablasDatos-Lab6.xlsx
+++ b/Docs/TablasDatos-Lab6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\2025-2\Asistencia\Laboratorios\Lab6\ISIS1225-Laboratorio-6\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/js_rodriguezm1234_uniandes_edu_co/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD33DA02-4501-4B58-9D83-E0FFBD1B4D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2497A665-4A32-426D-861D-0E2D4C299590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" tabRatio="767" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab6" sheetId="1" r:id="rId1"/>
@@ -3234,21 +3234,21 @@
       <selection activeCell="B11" sqref="B11:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.69140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.15234375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3259,42 +3259,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="8">
         <v>0.1</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="9">
         <v>0.5</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
         <v>0.7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
         <v>0.9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -3305,35 +3305,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>2</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>4</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>6</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>8</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="23" ht="14.65" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.7" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -3348,43 +3348,48 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="164883f8-7691-4ecf-b54a-664c0d0edefe">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_activity xmlns="f9728cc8-a565-44d1-ba67-c28b8d54a0e2" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="af74a0f8eb440a60883e9dd833f0742f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ceeff32ffca1089660572a8ebd1782" ns2:_="" ns3:_="">
-    <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <xsd:import namespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CCFDF8E47D864946B86FAD683C3F0C51" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="675cf92d1e338aaacb1de4575663c771">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f9728cc8-a565-44d1-ba67-c28b8d54a0e2" xmlns:ns4="cfd51c4f-c53b-427c-99ac-1954d542bbdf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79d9852846ab70e2abf334b61d001c98" ns3:_="" ns4:_="">
+    <xsd:import namespace="f9728cc8-a565-44d1-ba67-c28b8d54a0e2"/>
+    <xsd:import namespace="cfd51c4f-c53b-427c-99ac-1954d542bbdf"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3392,82 +3397,73 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="164883f8-7691-4ecf-b54a-664c0d0edefe" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f9728cc8-a565-44d1-ba67-c28b8d54a0e2" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="8" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="9" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+    <xsd:element name="MediaServiceMetadata" ma:index="13" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceFastMetadata" ma:index="14" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceSystemTags" ma:index="17" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a38e7027-190f-4f90-8839-9f8250567d86" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="22" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="85e30bcc-d76c-4413-8e4d-2dce22fb0743" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cfd51c4f-c53b-427c-99ac-1954d542bbdf" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
@@ -3496,16 +3492,10 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{26816d37-b675-4589-8225-e6a38877c704}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
+    <xsd:element name="SharingHintHash" ma:index="12" nillable="true" ma:displayName="Hash de la sugerencia para compartir" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -3607,35 +3597,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E10B9E65-6C88-4633-81F7-F02338B2B10B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="cfd51c4f-c53b-427c-99ac-1954d542bbdf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f9728cc8-a565-44d1-ba67-c28b8d54a0e2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350CEFFF-BD96-4236-8932-C0D9D1048000}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
-    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="f9728cc8-a565-44d1-ba67-c28b8d54a0e2"/>
+    <ds:schemaRef ds:uri="cfd51c4f-c53b-427c-99ac-1954d542bbdf"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -3644,12 +3639,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>